--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A55635-049E-44E9-B04E-14EA10FB9502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606BF1C8-757C-4EBB-B189-31FD56FCE1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AD$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -780,35 +780,35 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
       <c r="W1" s="22">
-        <f>SUBTOTAL(9,W4:W9999)</f>
+        <f t="shared" ref="W1:AD1" si="0">SUBTOTAL(9,W4:W9999)</f>
         <v>0</v>
       </c>
       <c r="X1" s="22">
-        <f>SUBTOTAL(9,X4:X9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y1" s="22">
-        <f>SUBTOTAL(9,Y4:Y9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z1" s="22">
-        <f>SUBTOTAL(9,Z4:Z9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA1" s="22">
-        <f>SUBTOTAL(9,AA4:AA9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB1" s="22">
-        <f>SUBTOTAL(9,AB4:AB9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC1" s="22">
-        <f>SUBTOTAL(9,AC4:AC9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD1" s="22">
-        <f>SUBTOTAL(9,AD4:AD9999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606BF1C8-757C-4EBB-B189-31FD56FCE1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E1E79-B536-4949-9801-C73F89EB880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AD$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AE$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Edificio</t>
   </si>
@@ -68,16 +68,6 @@
     <t>Current rent</t>
   </si>
   <si>
-    <t>Long Term Value Pre-Capex</t>
-  </si>
-  <si>
-    <t>Vacant Value Pre-Capex</t>
-  </si>
-  <si>
-    <t>Vacant-LT
-Capex</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -87,15 +77,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Pending subrogations</t>
-  </si>
-  <si>
-    <t>End date as per contract</t>
-  </si>
-  <si>
-    <t>Effective estimatation date</t>
-  </si>
-  <si>
     <t>Contribution</t>
   </si>
   <si>
@@ -148,6 +129,35 @@
   </si>
   <si>
     <t>VIM</t>
+  </si>
+  <si>
+    <t>Type of tenancy</t>
+  </si>
+  <si>
+    <t>Residential value</t>
+  </si>
+  <si>
+    <t>Long Term Value
+Pre-Capex</t>
+  </si>
+  <si>
+    <t>Vacant
+Value Pre-Capex</t>
+  </si>
+  <si>
+    <t>Dif
+Vacant-LT</t>
+  </si>
+  <si>
+    <t>Effective estimation date</t>
+  </si>
+  <si>
+    <t>Pending 
+subrogations</t>
+  </si>
+  <si>
+    <t>End date 
+as per contract</t>
   </si>
 </sst>
 </file>
@@ -273,16 +283,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,6 +321,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -705,311 +718,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="22.42578125" style="1" customWidth="1"/>
-    <col min="24" max="30" width="15.140625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="15.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="1" customWidth="1"/>
+    <col min="25" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21">
-        <f>SUBTOTAL(9,E4:E9999)</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="22">
-        <f>SUBTOTAL(9,F4:F9999)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="22">
-        <f>SUBTOTAL(9,G4:G9999)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="22">
-        <f>SUBTOTAL(9,H4:H9999)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="22">
-        <f>SUBTOTAL(9,I4:I9999)</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="22">
-        <f>SUBTOTAL(9,R4:R9999)</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="22">
-        <f>SUBTOTAL(9,S4:S9999)</f>
-        <v>0</v>
-      </c>
-      <c r="T1" s="22">
-        <f>SUBTOTAL(9,T4:T9999)</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="22">
-        <f t="shared" ref="W1:AD1" si="0">SUBTOTAL(9,W4:W9999)</f>
-        <v>0</v>
-      </c>
-      <c r="X1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="22">
-        <f t="shared" si="0"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19">
+        <f>SUBTOTAL(9,E4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="20">
+        <f>SUBTOTAL(9,F4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="20">
+        <f>SUBTOTAL(9,P4:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="20">
+        <f>SUBTOTAL(9,Q4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R1" s="20">
+        <f>SUBTOTAL(9,R4:R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="20">
+        <f>SUBTOTAL(9,U4:U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="20">
+        <f>SUBTOTAL(9,V4:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="20">
+        <f>SUBTOTAL(9,W4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="20">
+        <f>SUBTOTAL(9,X4:X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="20">
+        <f>SUBTOTAL(9,Y4:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="20">
+        <f>SUBTOTAL(9,Z4:Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="20">
+        <f>SUBTOTAL(9,AA4:AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AB1" s="20">
+        <f>SUBTOTAL(9,AB4:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="20">
+        <f>SUBTOTAL(9,AC4:AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD1" s="20">
+        <f>SUBTOTAL(9,AD4:AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="20">
+        <f>SUBTOTAL(9,AE4:AE4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="Y3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="16" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="11" t="e">
-        <f ca="1">IF(K4&lt;&gt;"",DATEDIF(K4,TODAY(),"Y"),"")</f>
+      <c r="I4" s="9" t="e">
+        <f ca="1">IF(H4&lt;&gt;"",DATEDIF(H4,TODAY(),"Y"),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12">
-        <f>G4-X4-Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="12">
-        <f>X4+R4</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="12">
-        <f>AA4-Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="12">
-        <f>AB4-AA4</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="17">
-        <f>IF(AA4,AC4/AA4,0)</f>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10">
+        <f>V4-U4</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10">
+        <f>V4-Y4-Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <f>Y4+P4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <f>AB4-Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="10">
+        <f>AC4-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
+        <f>IF(AB4,AD4/AB4,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AE4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L4" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E1E79-B536-4949-9801-C73F89EB880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347708A-10AA-456A-9A9D-2B3F8542C464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,47 +785,47 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="20">
-        <f>SUBTOTAL(9,U4:U4)</f>
+        <f t="shared" ref="U1:AE1" si="0">SUBTOTAL(9,U4:U4)</f>
         <v>0</v>
       </c>
       <c r="V1" s="20">
-        <f>SUBTOTAL(9,V4:V4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W1" s="20">
-        <f>SUBTOTAL(9,W4:W4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X1" s="20">
-        <f>SUBTOTAL(9,X4:X4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y1" s="20">
-        <f>SUBTOTAL(9,Y4:Y4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z1" s="20">
-        <f>SUBTOTAL(9,Z4:Z4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA1" s="20">
-        <f>SUBTOTAL(9,AA4:AA4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB1" s="20">
-        <f>SUBTOTAL(9,AB4:AB4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC1" s="20">
-        <f>SUBTOTAL(9,AC4:AC4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD1" s="20">
-        <f>SUBTOTAL(9,AD4:AD4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE1" s="20">
-        <f>SUBTOTAL(9,AE4:AE4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1007,11 +1007,14 @@
         <f>V4-U4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="10">
+        <f>W4-P4</f>
+        <v>0</v>
+      </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10">
-        <f>V4-Y4-Z4</f>
+        <f>Z4-Y4-P4</f>
         <v>0</v>
       </c>
       <c r="AB4" s="10">
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="10">
-        <f>AB4-Z4</f>
+        <f>Z4-U4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="10">
@@ -1027,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="15">
-        <f>IF(AB4,AD4/AB4,0)</f>
+        <f>IF(AB4,AC4/AB4,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347708A-10AA-456A-9A9D-2B3F8542C464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A203AE7-9B27-4A19-99AD-AA2F3074A93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Edificio</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Contribution</t>
-  </si>
-  <si>
-    <t>Chance to negotatiate</t>
   </si>
   <si>
     <t>% of (C) Contribution</t>
@@ -158,6 +155,15 @@
   <si>
     <t>End date 
 as per contract</t>
+  </si>
+  <si>
+    <t>Negotiation Status</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>(now)</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,9 +321,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -329,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -727,19 +736,19 @@
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="15.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="12.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
     <col min="21" max="23" width="15.42578125" style="1" customWidth="1"/>
     <col min="24" max="24" width="22.42578125" style="1" customWidth="1"/>
     <col min="25" max="31" width="15.42578125" style="1" customWidth="1"/>
@@ -751,128 +760,129 @@
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19">
+      <c r="C1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18">
         <f>SUBTOTAL(9,E4:E4)</f>
         <v>0</v>
       </c>
-      <c r="F1" s="20">
-        <f>SUBTOTAL(9,F4:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="20">
-        <f>SUBTOTAL(9,P4:P4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="20">
-        <f>SUBTOTAL(9,Q4:Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="R1" s="20">
-        <f>SUBTOTAL(9,R4:R4)</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20">
-        <f t="shared" ref="U1:AE1" si="0">SUBTOTAL(9,U4:U4)</f>
-        <v>0</v>
-      </c>
-      <c r="V1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F1" s="19">
+        <f>SUBTOTAL(9,F4:F99999)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="19">
+        <f>SUBTOTAL(9,Q4:Q99999)</f>
+        <v>0</v>
+      </c>
+      <c r="R1" s="19">
+        <f>SUBTOTAL(9,R4:R99999)</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="19">
+        <f>SUBTOTAL(9,S4:S99999)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="17"/>
+      <c r="U1" s="19">
+        <f>SUBTOTAL(9,U4:U99999)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="19">
+        <f>SUBTOTAL(9,V4:V99999)</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="19">
+        <f>SUBTOTAL(9,W4:W99999)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="19">
+        <f>SUBTOTAL(9,X4:X99999)</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="19">
+        <f>SUBTOTAL(9,Y4:Y99999)</f>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="19">
+        <f>SUBTOTAL(9,Z4:Z99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="19">
+        <f>SUBTOTAL(9,AA4:AA99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AB1" s="19">
+        <f>SUBTOTAL(9,AB4:AB99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="19">
+        <f>SUBTOTAL(9,AC4:AC99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AD1" s="19">
+        <f>SUBTOTAL(9,AD4:AD99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="22" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
     </row>
     <row r="3" spans="1:31" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -903,70 +913,70 @@
         <v>12</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="S3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -978,29 +988,29 @@
       <c r="F4" s="13"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="9" t="e">
         <f ca="1">IF(H4&lt;&gt;"",DATEDIF(H4,TODAY(),"Y"),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="17"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10">
@@ -1008,17 +1018,17 @@
         <v>0</v>
       </c>
       <c r="X4" s="10">
-        <f>W4-P4</f>
+        <f>W4-Q4</f>
         <v>0</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10">
-        <f>Z4-Y4-P4</f>
+        <f>Z4-Y4-Q4</f>
         <v>0</v>
       </c>
       <c r="AB4" s="10">
-        <f>Y4+P4</f>
+        <f>Y4+Q4</f>
         <v>0</v>
       </c>
       <c r="AC4" s="10">

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A203AE7-9B27-4A19-99AD-AA2F3074A93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B745AC-A195-431F-83D4-B053C7E0EC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AE$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AF$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Edificio</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>(now)</t>
+  </si>
+  <si>
+    <t>Código SAP</t>
   </si>
 </sst>
 </file>
@@ -727,54 +730,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="12.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="15.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" style="1" customWidth="1"/>
-    <col min="25" max="31" width="15.42578125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="15.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" style="1" customWidth="1"/>
+    <col min="26" max="32" width="15.44140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="18">
-        <f>SUBTOTAL(9,E4:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="19">
-        <f>SUBTOTAL(9,F4:F99999)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="17"/>
+      <c r="F1" s="18">
+        <f>SUBTOTAL(9,F4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="19">
+        <f>SUBTOTAL(9,G4:G99999)</f>
+        <v>0</v>
+      </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -784,10 +788,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
-      <c r="Q1" s="19">
-        <f>SUBTOTAL(9,Q4:Q99999)</f>
-        <v>0</v>
-      </c>
+      <c r="Q1" s="17"/>
       <c r="R1" s="19">
         <f>SUBTOTAL(9,R4:R99999)</f>
         <v>0</v>
@@ -796,50 +797,54 @@
         <f>SUBTOTAL(9,S4:S99999)</f>
         <v>0</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="19">
-        <f>SUBTOTAL(9,U4:U99999)</f>
-        <v>0</v>
-      </c>
+      <c r="T1" s="19">
+        <f>SUBTOTAL(9,T4:T99999)</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="17"/>
       <c r="V1" s="19">
-        <f>SUBTOTAL(9,V4:V99999)</f>
+        <f t="shared" ref="V1:AE1" si="0">SUBTOTAL(9,V4:V99999)</f>
         <v>0</v>
       </c>
       <c r="W1" s="19">
-        <f>SUBTOTAL(9,W4:W99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X1" s="19">
-        <f>SUBTOTAL(9,X4:X99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y1" s="19">
-        <f>SUBTOTAL(9,Y4:Y99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z1" s="19">
-        <f>SUBTOTAL(9,Z4:Z99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA1" s="19">
-        <f>SUBTOTAL(9,AA4:AA99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB1" s="19">
-        <f>SUBTOTAL(9,AB4:AB99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC1" s="19">
-        <f>SUBTOTAL(9,AC4:AC99999)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD1" s="19">
-        <f>SUBTOTAL(9,AD4:AD99999)</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="19"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF1" s="19"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -847,10 +852,10 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -858,33 +863,34 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="22"/>
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -892,160 +898,164 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="e">
-        <f ca="1">IF(H4&lt;&gt;"",DATEDIF(H4,TODAY(),"Y"),"")</f>
+      <c r="J4" s="9" t="e">
+        <f ca="1">IF(I4&lt;&gt;"",DATEDIF(I4,TODAY(),"Y"),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
+      <c r="M4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-      <c r="W4" s="10">
-        <f>V4-U4</f>
-        <v>0</v>
-      </c>
+      <c r="W4" s="10"/>
       <c r="X4" s="10">
-        <f>W4-Q4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10"/>
+        <f>W4-V4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <f>X4-R4</f>
+        <v>0</v>
+      </c>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="10">
-        <f>Z4-Y4-Q4</f>
-        <v>0</v>
-      </c>
+      <c r="AA4" s="10"/>
       <c r="AB4" s="10">
-        <f>Y4+Q4</f>
+        <f>AA4-Z4-R4</f>
         <v>0</v>
       </c>
       <c r="AC4" s="10">
-        <f>Z4-U4</f>
+        <f>Z4+R4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="10">
-        <f>AC4-AB4</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="15">
-        <f>IF(AB4,AC4/AB4,0)</f>
+        <f>AA4-V4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="10">
+        <f>AD4-AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15">
+        <f>IF(AC4,AD4/AC4,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AF4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B745AC-A195-431F-83D4-B053C7E0EC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDAEA8D-B95F-4B09-A93F-465BE9D1515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AF$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AG$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Edificio</t>
   </si>
@@ -138,10 +138,6 @@
 Pre-Capex</t>
   </si>
   <si>
-    <t>Vacant
-Value Pre-Capex</t>
-  </si>
-  <si>
     <t>Dif
 Vacant-LT</t>
   </si>
@@ -167,6 +163,16 @@
   </si>
   <si>
     <t>Código SAP</t>
+  </si>
+  <si>
+    <t>Vacant
+Value
+Pre-Capex</t>
+  </si>
+  <si>
+    <t>Residential
+Value
+Post-Capex</t>
   </si>
 </sst>
 </file>
@@ -730,46 +736,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="15.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="22.44140625" style="1" customWidth="1"/>
-    <col min="26" max="32" width="15.44140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="14.44140625" style="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="15.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" customWidth="1"/>
+    <col min="27" max="33" width="15.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="18">
         <f>SUBTOTAL(9,F4:F4)</f>
@@ -803,7 +809,7 @@
       </c>
       <c r="U1" s="17"/>
       <c r="V1" s="19">
-        <f t="shared" ref="V1:AE1" si="0">SUBTOTAL(9,V4:V99999)</f>
+        <f t="shared" ref="V1:AF1" si="0">SUBTOTAL(9,V4:V99999)</f>
         <v>0</v>
       </c>
       <c r="W1" s="19">
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X1" si="1">SUBTOTAL(9,X4:X99999)</f>
         <v>0</v>
       </c>
       <c r="Y1" s="19">
@@ -842,9 +848,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF1" s="19"/>
+      <c r="AF1" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG1" s="19"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -878,19 +888,20 @@
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="21"/>
       <c r="AB2" s="21"/>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -898,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -925,19 +936,19 @@
         <v>2</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>14</v>
@@ -958,37 +969,40 @@
         <v>32</v>
       </c>
       <c r="W3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1023,39 +1037,40 @@
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="10">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10">
         <f>W4-V4</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="10">
-        <f>X4-R4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="10">
+        <f>Y4-R4</f>
+        <v>0</v>
+      </c>
       <c r="AA4" s="10"/>
-      <c r="AB4" s="10">
-        <f>AA4-Z4-R4</f>
-        <v>0</v>
-      </c>
+      <c r="AB4" s="10"/>
       <c r="AC4" s="10">
-        <f>Z4+R4</f>
+        <f>AB4-AA4-R4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="10">
-        <f>AA4-V4</f>
+        <f>AA4+R4</f>
         <v>0</v>
       </c>
       <c r="AE4" s="10">
-        <f>AD4-AC4</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="15">
-        <f>IF(AC4,AD4/AC4,0)</f>
+        <f>AB4-V4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <f>AE4-AD4</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="15">
+        <f>IF(AD4,AE4/AD4,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AG4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDAEA8D-B95F-4B09-A93F-465BE9D1515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335E0A0-8F07-4D20-87AF-D3F7B865F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="288" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Long term conversion</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
     <t>Residential
 Value
 Post-Capex</t>
+  </si>
+  <si>
+    <t>Analysis Contributions</t>
   </si>
 </sst>
 </file>
@@ -767,15 +767,15 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="18">
         <f>SUBTOTAL(9,F4:F4)</f>
@@ -856,7 +856,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -864,7 +864,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -875,7 +875,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -883,19 +883,19 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
@@ -909,97 +909,97 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG3" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="9" t="e">
         <f ca="1">IF(I4&lt;&gt;"",DATEDIF(I4,TODAY(),"Y"),"")</f>
@@ -1020,10 +1020,10 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="16"/>
@@ -1033,7 +1033,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335E0A0-8F07-4D20-87AF-D3F7B865F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4015ED6-4CE9-43A4-8BBC-E9490323EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="288" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AG$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTC!$A$3:$AH$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Edificio</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Analysis Contributions</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,24 +751,25 @@
     <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="12.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
-    <col min="22" max="25" width="15.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1"/>
-    <col min="27" max="33" width="15.42578125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="14.42578125" style="1"/>
+    <col min="7" max="7" width="37.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="15.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" style="1" customWidth="1"/>
+    <col min="28" max="34" width="15.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -781,11 +785,11 @@
         <f>SUBTOTAL(9,F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="19">
-        <f>SUBTOTAL(9,G4:G99999)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="19">
+        <f>SUBTOTAL(9,H4:H99999)</f>
+        <v>0</v>
+      </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -795,10 +799,7 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="19">
-        <f>SUBTOTAL(9,R4:R99999)</f>
-        <v>0</v>
-      </c>
+      <c r="R1" s="17"/>
       <c r="S1" s="19">
         <f>SUBTOTAL(9,S4:S99999)</f>
         <v>0</v>
@@ -807,21 +808,21 @@
         <f>SUBTOTAL(9,T4:T99999)</f>
         <v>0</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="19">
-        <f t="shared" ref="V1:AF1" si="0">SUBTOTAL(9,V4:V99999)</f>
-        <v>0</v>
-      </c>
+      <c r="U1" s="19">
+        <f>SUBTOTAL(9,U4:U99999)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="17"/>
       <c r="W1" s="19">
+        <f t="shared" ref="W1:AG1" si="0">SUBTOTAL(9,W4:W99999)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X1" s="19">
-        <f t="shared" ref="X1" si="1">SUBTOTAL(9,X4:X99999)</f>
-        <v>0</v>
-      </c>
       <c r="Y1" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Y1" si="1">SUBTOTAL(9,Y4:Y99999)</f>
         <v>0</v>
       </c>
       <c r="Z1" s="19">
@@ -852,9 +853,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG1" s="19"/>
+      <c r="AG1" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -863,10 +868,10 @@
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -874,34 +879,35 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21"/>
+      <c r="W2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="21"/>
       <c r="AC2" s="21"/>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
     </row>
-    <row r="3" spans="1:33" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -921,156 +927,160 @@
         <v>5</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AH3" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="9" t="e">
-        <f ca="1">IF(I4&lt;&gt;"",DATEDIF(I4,TODAY(),"Y"),"")</f>
+      <c r="K4" s="9" t="e">
+        <f ca="1">IF(J4&lt;&gt;"",DATEDIF(J4,TODAY(),"Y"),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="10"/>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="10"/>
+      <c r="V4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10">
-        <f>W4-V4</f>
-        <v>0</v>
-      </c>
+      <c r="Y4" s="10"/>
       <c r="Z4" s="10">
-        <f>Y4-R4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10"/>
+        <f>X4-W4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <f>Z4-S4</f>
+        <v>0</v>
+      </c>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="10">
-        <f>AB4-AA4-R4</f>
-        <v>0</v>
-      </c>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="10">
-        <f>AA4+R4</f>
+        <f>AC4-AB4-S4</f>
         <v>0</v>
       </c>
       <c r="AE4" s="10">
-        <f>AB4-V4</f>
+        <f>AB4+S4</f>
         <v>0</v>
       </c>
       <c r="AF4" s="10">
-        <f>AE4-AD4</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="15">
-        <f>IF(AD4,AE4/AD4,0)</f>
+        <f>AC4-W4</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10">
+        <f>AF4-AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="15">
+        <f>IF(AE4,AF4/AE4,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AH4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4015ED6-4CE9-43A4-8BBC-E9490323EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2229DA5-A4F9-44A9-86B8-E5000FE12080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,6 +349,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -743,30 +746,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="12.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
-    <col min="23" max="26" width="15.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.42578125" style="1" customWidth="1"/>
-    <col min="28" max="34" width="15.42578125" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="12.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="1" customWidth="1"/>
+    <col min="23" max="26" width="15.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.44140625" style="1" customWidth="1"/>
+    <col min="28" max="34" width="15.44140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,7 +910,7 @@
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
     </row>
-    <row r="3" spans="1:34" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">

--- a/app/templates/report/ltc.xlsx
+++ b/app/templates/report/ltc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2229DA5-A4F9-44A9-86B8-E5000FE12080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DD4E2-44F2-4A34-82D2-91F2753C5D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC" sheetId="1" r:id="rId1"/>
@@ -746,30 +746,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="12.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="1" customWidth="1"/>
-    <col min="23" max="26" width="15.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.44140625" style="1" customWidth="1"/>
-    <col min="28" max="34" width="15.44140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="14.44140625" style="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="15.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" style="1" customWidth="1"/>
+    <col min="28" max="34" width="15.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="18">
-        <f>SUBTOTAL(9,F4:F4)</f>
+        <f>SUBTOTAL(9,F4:F99999)</f>
         <v>0</v>
       </c>
       <c r="G1" s="17"/>
@@ -910,7 +910,7 @@
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
     </row>
-    <row r="3" spans="1:34" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
